--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Patika\LINK-BOOTCAMP\BitirmeProjesi\CustomerRegistrationAPI\ReportExample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Patika\LINK-BOOTCAMP\BitirmeProjesi\CustomerRegistrationAPI\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F9F2B5-51F3-4767-8DED-DD4D851229AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A7F27-158E-4212-A898-513FC68E63E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
+    <t>Top 5 Customer by Activies</t>
+  </si>
+  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -40,24 +43,12 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Sue</t>
-  </si>
-  <si>
-    <t>Harrington</t>
-  </si>
-  <si>
     <t>Burak</t>
   </si>
   <si>
     <t>Boğmak</t>
   </si>
   <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
@@ -70,7 +61,16 @@
     <t>Messi</t>
   </si>
   <si>
-    <t>Top 5 Customer by Activies</t>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Wick</t>
   </si>
 </sst>
 </file>
@@ -443,127 +443,127 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" customWidth="1"/>
     <col min="4" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>4</v>
-      </c>
-      <c r="F6">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
